--- a/Liushui/output/sample3.xlsx
+++ b/Liushui/output/sample3.xlsx
@@ -437,67 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>交易日期</t>
+          <t>date text</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>交易时间</t>
+          <t>time text</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>本方名称</t>
+          <t>sender_name text</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>本方账号</t>
+          <t>sender_account text</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>本方银行</t>
+          <t>sender_bank text</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>对方名称</t>
+          <t>receiver_name text</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>对方账号</t>
+          <t>receiver_account text</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>交易类型</t>
+          <t>type text</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>摘要</t>
+          <t>abstract text</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>流入金额</t>
+          <t>received_amount text</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>流出金额</t>
+          <t>sent_amount text</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>交易后余额</t>
+          <t>balance text</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>系统分类</t>
+          <t>system_classification text</t>
         </is>
       </c>
     </row>

--- a/Liushui/output/sample3.xlsx
+++ b/Liushui/output/sample3.xlsx
@@ -520,10 +520,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
@@ -568,10 +572,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
@@ -616,10 +624,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
@@ -664,10 +676,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
@@ -712,10 +728,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
@@ -760,10 +780,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -816,10 +840,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -868,10 +896,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
@@ -916,10 +948,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
@@ -964,10 +1000,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -1020,10 +1060,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -1076,10 +1120,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -1132,10 +1180,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>严勇</t>
@@ -1188,10 +1240,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -1244,10 +1300,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>单智垚</t>
@@ -1300,10 +1360,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>张明珠</t>
@@ -1356,10 +1420,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>周强</t>
@@ -1412,10 +1480,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -1468,10 +1540,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
@@ -1516,10 +1592,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -1568,10 +1648,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>北京公瑾科技有限公司</t>
@@ -1624,10 +1708,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>深圳市奇莘科技有限公司</t>
@@ -1680,10 +1768,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -1728,10 +1820,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>咸宁市九合盎然人工智能产业壹号投资合伙企业（有限合伙）</t>
@@ -1784,10 +1880,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司企业直通平台验证户</t>
@@ -1840,10 +1940,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司企业直通平台验证户</t>
@@ -1892,10 +1996,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -1940,10 +2048,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -1996,10 +2108,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -2052,10 +2168,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -2108,10 +2228,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -2164,10 +2288,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>单智垚</t>
@@ -2220,10 +2348,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>严勇</t>
@@ -2276,10 +2408,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
           <t>张明珠</t>
@@ -2332,10 +2468,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
           <t>周强</t>
@@ -2388,10 +2528,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝购买户</t>
@@ -2444,10 +2588,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -2492,10 +2640,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
@@ -2540,10 +2692,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
@@ -2588,10 +2744,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -2640,10 +2800,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
@@ -2688,10 +2852,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -2740,10 +2908,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
           <t>上海爱钛技术咨询有限公司</t>
@@ -2796,10 +2968,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
           <t>上海爱钛技术咨询有限公司</t>
@@ -2852,10 +3028,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -2908,10 +3088,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -2964,10 +3148,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
           <t>严勇</t>
@@ -3020,10 +3208,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -3076,10 +3268,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
           <t>单智垚</t>
@@ -3132,10 +3328,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
           <t>张明珠</t>
@@ -3188,10 +3388,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
           <t>周强</t>
@@ -3244,10 +3448,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -3300,10 +3508,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
@@ -3348,10 +3560,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
@@ -3396,10 +3612,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
@@ -3444,10 +3664,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
@@ -3492,10 +3716,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -3544,10 +3772,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
           <t>庞建蓉</t>
@@ -3600,10 +3832,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
@@ -3648,10 +3884,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -3700,10 +3940,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -3756,10 +4000,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -3812,10 +4060,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
           <t>严勇</t>
@@ -3868,10 +4120,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -3924,10 +4180,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
           <t>单智垚</t>
@@ -3980,10 +4240,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr">
         <is>
           <t>张明珠</t>
@@ -4036,10 +4300,14 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
           <t>周强</t>
@@ -4092,10 +4360,14 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -4148,10 +4420,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
           <t>韩偲超</t>
@@ -4204,10 +4480,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
           <t>上海爱钛技术咨询有限公司</t>
@@ -4260,10 +4540,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr">
         <is>
           <t>上海爱钛技术咨询有限公司</t>
@@ -4316,10 +4600,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -4372,10 +4660,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -4428,10 +4720,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -4484,10 +4780,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
         <is>
           <t>张明珠</t>
@@ -4540,10 +4840,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
           <t>韩偲超</t>
@@ -4596,10 +4900,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -4652,10 +4960,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
@@ -4700,10 +5012,14 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -4756,10 +5072,14 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr">
         <is>
           <t>上海梦轩创意广告有限公司</t>
@@ -4812,10 +5132,14 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -4868,10 +5192,14 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -4924,10 +5252,14 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr">
         <is>
           <t>上海富数科技有限公司</t>
@@ -4980,10 +5312,14 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
           <t>上海富数科技有限公司</t>
@@ -5036,10 +5372,14 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -5092,10 +5432,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -5148,10 +5492,14 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr">
         <is>
           <t>北京公瑾科技有限公司</t>
@@ -5204,10 +5552,14 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr">
         <is>
           <t>上海善景企业管理咨询有限公司</t>
@@ -5260,10 +5612,14 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr">
         <is>
           <t>庞建蓉</t>
@@ -5316,10 +5672,14 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -5372,10 +5732,14 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -5428,10 +5792,14 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
@@ -5476,10 +5844,14 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
@@ -5524,10 +5896,14 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
@@ -5572,10 +5948,14 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -5624,10 +6004,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
@@ -5672,10 +6056,14 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G98" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -5728,10 +6116,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr">
         <is>
           <t>深圳市奇莘科技有限公司</t>
@@ -5784,10 +6176,14 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -5840,10 +6236,14 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -5896,10 +6296,14 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G102" t="inlineStr">
         <is>
           <t>严勇</t>
@@ -5952,10 +6356,14 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -6008,10 +6416,14 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr">
         <is>
           <t>单智垚</t>
@@ -6064,10 +6476,14 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G105" t="inlineStr">
         <is>
           <t>张明珠</t>
@@ -6120,10 +6536,14 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr">
         <is>
           <t>周强</t>
@@ -6176,10 +6596,14 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr">
         <is>
           <t>韩偲超</t>
@@ -6232,10 +6656,14 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G108" t="inlineStr">
         <is>
           <t>单智垚</t>
@@ -6288,10 +6716,14 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G109" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -6344,10 +6776,14 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr">
         <is>
           <t>严勇</t>
@@ -6400,10 +6836,14 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -6456,10 +6896,14 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -6512,10 +6956,14 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G113" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -6568,10 +7016,14 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -6624,10 +7076,14 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G115" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -6680,10 +7136,14 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
@@ -6728,10 +7188,14 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G117" t="inlineStr">
         <is>
           <t>咸宁市九合盎然人工智能产业壹号投资合伙企业（有限合伙）</t>
@@ -6784,10 +7248,14 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G118" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝购买户</t>
@@ -6840,10 +7308,14 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
@@ -6888,10 +7360,14 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G120" t="inlineStr">
         <is>
           <t>广州探迹科技有限公司</t>
@@ -6944,10 +7420,14 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G121" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -6996,10 +7476,14 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G122" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -7052,10 +7536,14 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G123" t="inlineStr">
         <is>
           <t>挖财网络技术有限公司</t>
@@ -7108,10 +7596,14 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
@@ -7156,10 +7648,14 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
@@ -7204,10 +7700,14 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
@@ -7252,10 +7752,14 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G127" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -7304,10 +7808,14 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G128" t="inlineStr">
         <is>
           <t>上海企盈致青春财务顾问有限公司</t>
@@ -7360,10 +7868,14 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G129" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -7412,10 +7924,14 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G130" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -7464,10 +7980,14 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
@@ -7512,10 +8032,14 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G132" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -7568,10 +8092,14 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G133" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -7624,10 +8152,14 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G134" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -7680,10 +8212,14 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G135" t="inlineStr">
         <is>
           <t>严勇</t>
@@ -7736,10 +8272,14 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G136" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -7792,10 +8332,14 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G137" t="inlineStr">
         <is>
           <t>单智垚</t>
@@ -7848,10 +8392,14 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G138" t="inlineStr">
         <is>
           <t>张明珠</t>
@@ -7904,10 +8452,14 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G139" t="inlineStr">
         <is>
           <t>周强</t>
@@ -7960,10 +8512,14 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G140" t="inlineStr">
         <is>
           <t>韩偲超</t>
@@ -8016,10 +8572,14 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G141" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -8072,10 +8632,14 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G142" t="inlineStr">
         <is>
           <t>熊唯</t>
@@ -8128,10 +8692,14 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G143" t="inlineStr">
         <is>
           <t>深圳市奇莘科技有限公司</t>
@@ -8184,10 +8752,14 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
@@ -8232,10 +8804,14 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G145" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -8288,10 +8864,14 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G146" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -8344,10 +8924,14 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G147" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -8400,10 +8984,14 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G148" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -8456,10 +9044,14 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G149" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -8508,10 +9100,14 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G150" t="inlineStr">
         <is>
           <t>武汉众邦银行总行清算中心</t>
@@ -8564,10 +9160,14 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G151" t="inlineStr">
         <is>
           <t>环球赋辰（宁波）信息科技有限公司</t>
@@ -8620,10 +9220,14 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G152" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -8672,10 +9276,14 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G153" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -8728,10 +9336,14 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
@@ -8776,10 +9388,14 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
@@ -8824,10 +9440,14 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
@@ -8872,10 +9492,14 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G157" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -8924,10 +9548,14 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G158" t="inlineStr">
         <is>
           <t>广州探迹科技有限公司</t>
@@ -8980,10 +9608,14 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G159" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -9032,10 +9664,14 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G160" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -9088,10 +9724,14 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G161" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -9144,10 +9784,14 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G162" t="inlineStr">
         <is>
           <t>张明珠</t>
@@ -9200,10 +9844,14 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G163" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -9256,10 +9904,14 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G164" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -9312,10 +9964,14 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G165" t="inlineStr">
         <is>
           <t>熊唯</t>
@@ -9368,10 +10024,14 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
@@ -9416,10 +10076,14 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
@@ -9464,10 +10128,14 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
@@ -9512,10 +10180,14 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G169" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -9564,10 +10236,14 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
@@ -9612,10 +10288,14 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G171" t="inlineStr">
         <is>
           <t>友众信业金融信息服务（上海）有限公司</t>
@@ -9668,10 +10348,14 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G172" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -9720,10 +10404,14 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G173" t="inlineStr">
         <is>
           <t>上海疏韬企业管理咨询有限公司</t>
@@ -9776,10 +10464,14 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G174" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -9828,10 +10520,14 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G175" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -9884,10 +10580,14 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G176" t="inlineStr">
         <is>
           <t>广州探迹科技有限公司</t>
@@ -9940,10 +10640,14 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
@@ -9988,10 +10692,14 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
@@ -10036,10 +10744,14 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
@@ -10084,10 +10796,14 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G180" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -10136,10 +10852,14 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G181" t="inlineStr">
         <is>
           <t>上海疏韬企业管理咨询有限公司</t>
@@ -10192,10 +10912,14 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G182" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -10244,10 +10968,14 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
@@ -10292,10 +11020,14 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
@@ -10340,10 +11072,14 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G185" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -10396,10 +11132,14 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G186" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -10452,10 +11192,14 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G187" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -10508,10 +11252,14 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G188" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -10564,10 +11312,14 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G189" t="inlineStr">
         <is>
           <t>单智垚</t>
@@ -10620,10 +11372,14 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G190" t="inlineStr">
         <is>
           <t>张明珠</t>
@@ -10676,10 +11432,14 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G191" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -10732,10 +11492,14 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G192" t="inlineStr">
         <is>
           <t>熊唯</t>
@@ -10788,10 +11552,14 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
@@ -10836,10 +11604,14 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G194" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -10888,10 +11660,14 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
@@ -10936,10 +11712,14 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G196" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -10988,10 +11768,14 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G197" t="inlineStr">
         <is>
           <t>德恒上海律师事务所</t>
@@ -11044,10 +11828,14 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
@@ -11092,10 +11880,14 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G199" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -11144,10 +11936,14 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G200" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -11200,10 +11996,14 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G201" t="inlineStr">
         <is>
           <t>广州探迹科技有限公司</t>
@@ -11256,10 +12056,14 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
@@ -11304,10 +12108,14 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
@@ -11352,10 +12160,14 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
@@ -11400,10 +12212,14 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G205" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -11456,10 +12272,14 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G206" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -11512,10 +12332,14 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
@@ -11560,10 +12384,14 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G208" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -11612,10 +12440,14 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G209" t="inlineStr">
         <is>
           <t>韩偲超</t>
@@ -11668,10 +12500,14 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G210" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -11724,10 +12560,14 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G211" t="inlineStr">
         <is>
           <t>上海梦轩创意广告有限公司</t>
@@ -11780,10 +12620,14 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
@@ -11828,10 +12672,14 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
@@ -11876,10 +12724,14 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
@@ -11924,10 +12776,14 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G215" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -11976,10 +12832,14 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G216" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -12028,10 +12888,14 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G217" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -12084,10 +12948,14 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G218" t="inlineStr">
         <is>
           <t>挖财网络技术有限公司</t>
@@ -12140,10 +13008,14 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G219" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -12196,10 +13068,14 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G220" t="inlineStr">
         <is>
           <t>德恒上海律师事务所</t>
@@ -12252,10 +13128,14 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G221" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -12308,10 +13188,14 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G222" t="inlineStr">
         <is>
           <t>广州探迹科技有限公司</t>
@@ -12364,10 +13248,14 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G223" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -12420,10 +13308,14 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G224" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -12476,10 +13368,14 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G225" t="inlineStr">
         <is>
           <t>北京中科云链信息技术有限公司</t>
@@ -12532,10 +13428,14 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G226" t="inlineStr">
         <is>
           <t>武汉众邦银行总行清算中心</t>
@@ -12588,10 +13488,14 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
@@ -12636,10 +13540,14 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
@@ -12684,10 +13592,14 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
@@ -12732,10 +13644,14 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
@@ -12780,10 +13696,14 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G231" t="inlineStr">
         <is>
           <t>环球赋辰（宁波）信息科技有限公司</t>
@@ -12836,10 +13756,14 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G232" t="inlineStr">
         <is>
           <t>上海富数科技有限公司</t>
@@ -12888,10 +13812,14 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G233" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -12944,10 +13872,14 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G234" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -13000,10 +13932,14 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
@@ -13048,10 +13984,14 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
@@ -13096,10 +14036,14 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
@@ -13144,10 +14088,14 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G238" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -13196,10 +14144,14 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G239" t="inlineStr">
         <is>
           <t>友众信业金融信息服务（上海）有限公司</t>
@@ -13252,10 +14204,14 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
@@ -13300,10 +14256,14 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G241" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -13356,10 +14316,14 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G242" t="inlineStr">
         <is>
           <t>广州探迹科技有限公司</t>
@@ -13412,10 +14376,14 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G243" t="inlineStr">
         <is>
           <t>上海创信知识产权服务有限公司</t>
@@ -13468,10 +14436,14 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
@@ -13516,10 +14488,14 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
@@ -13564,10 +14540,14 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
@@ -13612,10 +14592,14 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G247" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -13668,10 +14652,14 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G248" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -13724,10 +14712,14 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G249" t="inlineStr">
         <is>
           <t>上海优音云端通信有限公司</t>
@@ -13780,10 +14772,14 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G250" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -13836,10 +14832,14 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G251" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -13888,10 +14888,14 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
@@ -13936,10 +14940,14 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
@@ -13984,10 +14992,14 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G254" t="inlineStr"/>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
@@ -14032,10 +15044,14 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G255" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -14088,10 +15104,14 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G256" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -14144,10 +15164,14 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G257" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -14200,10 +15224,14 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G258" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -14256,10 +15284,14 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G259" t="inlineStr">
         <is>
           <t>单智垚</t>
@@ -14312,10 +15344,14 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G260" t="inlineStr">
         <is>
           <t>严勇</t>
@@ -14368,10 +15404,14 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G261" t="inlineStr"/>
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
@@ -14416,10 +15456,14 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G262" t="inlineStr">
         <is>
           <t>上海创信知识产权服务有限公司</t>
@@ -14472,10 +15516,14 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
@@ -14520,10 +15568,14 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G264" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -14576,10 +15628,14 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G265" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -14632,10 +15688,14 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G266" t="inlineStr">
         <is>
           <t>上海梦轩创意广告有限公司</t>
@@ -14688,10 +15748,14 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
@@ -14736,10 +15800,14 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G268" t="inlineStr"/>
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
@@ -14784,10 +15852,14 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
@@ -14832,10 +15904,14 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G270" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -14884,10 +15960,14 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G271" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -14940,10 +16020,14 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G272" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -14996,10 +16080,14 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F273" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G273" t="inlineStr"/>
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
@@ -15044,10 +16132,14 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F274" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G274" t="inlineStr"/>
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
@@ -15092,10 +16184,14 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F275" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G275" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -15148,10 +16244,14 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F276" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G276" t="inlineStr">
         <is>
           <t>上海创信知识产权服务有限公司</t>
@@ -15204,10 +16304,14 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G277" t="inlineStr">
         <is>
           <t>挖财网络技术有限公司</t>
@@ -15260,10 +16364,14 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G278" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -15316,10 +16424,14 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G279" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -15372,10 +16484,14 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G280" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -15428,10 +16544,14 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G281" t="inlineStr"/>
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
@@ -15476,10 +16596,14 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G282" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -15528,10 +16652,14 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G283" t="inlineStr"/>
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
@@ -15576,10 +16704,14 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G284" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -15632,10 +16764,14 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F285" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G285" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -15688,10 +16824,14 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G286" t="inlineStr">
         <is>
           <t>上海擘峰企业管理合伙企业（有限合伙）</t>
@@ -15744,10 +16884,14 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G287" t="inlineStr"/>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
@@ -15792,10 +16936,14 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F288" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
@@ -15840,10 +16988,14 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F289" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G289" t="inlineStr"/>
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
@@ -15888,10 +17040,14 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G290" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -15944,10 +17100,14 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F291" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G291" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -16000,10 +17160,14 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
@@ -16048,10 +17212,14 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G293" t="inlineStr"/>
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
@@ -16096,10 +17264,14 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F294" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G294" t="inlineStr"/>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
@@ -16144,10 +17316,14 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F295" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G295" t="inlineStr"/>
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
@@ -16192,10 +17368,14 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G296" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -16244,10 +17424,14 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F297" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G297" t="inlineStr">
         <is>
           <t>阿尔标知识产权代理有限公司</t>
@@ -16300,10 +17484,14 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F298" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G298" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -16356,10 +17544,14 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G299" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -16412,10 +17604,14 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G300" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -16468,10 +17664,14 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G301" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -16524,10 +17724,14 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F302" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G302" t="inlineStr"/>
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
@@ -16572,10 +17776,14 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F303" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G303" t="inlineStr"/>
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
@@ -16620,10 +17828,14 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>121931252210106</t>
-        </is>
-      </c>
-      <c r="F304" t="inlineStr"/>
+          <t>19991101</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>招行</t>
+        </is>
+      </c>
       <c r="G304" t="inlineStr"/>
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
